--- a/A-开发相关文档素材/3.测试用例/日程编辑 - 测试用例.xlsx
+++ b/A-开发相关文档素材/3.测试用例/日程编辑 - 测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="日程编辑" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,9 @@
     <t>异常</t>
   </si>
   <si>
+    <t>○</t>
+  </si>
+  <si>
     <t>userId不传，其他入参正常传参，查看结果是否正确</t>
   </si>
   <si>
@@ -292,9 +295,6 @@
   </si>
   <si>
     <t>类型</t>
-  </si>
-  <si>
-    <t>○</t>
   </si>
   <si>
     <t>-</t>
@@ -340,7 +340,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,13 +350,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -387,21 +380,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,24 +416,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,8 +452,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,16 +483,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,45 +522,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -563,25 +556,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,157 +730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,15 +839,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -866,15 +850,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,23 +872,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,13 +922,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,213 +941,219 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1604,7 +1603,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C18" sqref="C18:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1630,7 +1629,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="17"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:11">
       <c r="A2" s="7"/>
@@ -1645,7 +1644,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="17"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:11">
       <c r="A3" s="7" t="s">
@@ -1678,7 +1677,7 @@
       <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1701,7 +1700,9 @@
       <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -1711,10 +1712,10 @@
       <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>17</v>
@@ -1722,7 +1723,9 @@
       <c r="F5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -1732,20 +1735,22 @@
       <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -1755,18 +1760,20 @@
       <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -1776,20 +1783,22 @@
       <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -1799,18 +1808,20 @@
       <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -1820,20 +1831,22 @@
       <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -1843,18 +1856,20 @@
       <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -1864,20 +1879,22 @@
       <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -1887,18 +1904,20 @@
       <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -1908,20 +1927,22 @@
       <c r="A14" s="10">
         <v>11</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -1931,18 +1952,20 @@
       <c r="A15" s="10">
         <v>12</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1952,20 +1975,22 @@
       <c r="A16" s="10">
         <v>13</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -1975,18 +2000,20 @@
       <c r="A17" s="10">
         <v>14</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -1997,21 +2024,23 @@
         <v>15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -2021,18 +2050,20 @@
       <c r="A19" s="10">
         <v>16</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -2042,18 +2073,20 @@
       <c r="A20" s="10">
         <v>17</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -2063,20 +2096,22 @@
       <c r="A21" s="10">
         <v>18</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14" t="s">
-        <v>52</v>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -2086,20 +2121,22 @@
       <c r="A22" s="10">
         <v>19</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14" t="s">
-        <v>55</v>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -2109,20 +2146,22 @@
       <c r="A23" s="10">
         <v>20</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="12"/>
+      <c r="G23" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -2132,20 +2171,22 @@
       <c r="A24" s="10">
         <v>21</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14" t="s">
-        <v>61</v>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -2156,21 +2197,23 @@
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -2181,21 +2224,23 @@
         <v>23</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -2206,21 +2251,23 @@
         <v>24</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -2230,20 +2277,22 @@
       <c r="A28" s="10">
         <v>25</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -2253,20 +2302,22 @@
       <c r="A29" s="10">
         <v>26</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -2276,20 +2327,22 @@
       <c r="A30" s="10">
         <v>27</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -2299,20 +2352,20 @@
       <c r="A31" s="10">
         <v>28</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="12"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="18"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -2355,14 +2408,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2370,10 +2423,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2386,7 +2439,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>87</v>
@@ -2405,7 +2458,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
